--- a/documents/外部設計/データベース設計書_落穂ひろい.xlsx
+++ b/documents/外部設計/データベース設計書_落穂ひろい.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\A5\documents\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4E1C0C-2C36-4166-BA46-10F4A08D0464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E16B86-A81D-4303-8DB4-071E0C30360A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="77">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -467,6 +467,97 @@
     </rPh>
     <rPh sb="37" eb="39">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>enevt_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正規化？外部キー？ボタンから引っ張ってくる</t>
+    <rPh sb="0" eb="3">
+      <t>セイキカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>パ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マニュアルファイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>manual_file</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベントID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベントテーブルの参照先</t>
+    <rPh sb="9" eb="11">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>button_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>button_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アップルパイ教室は耐え</t>
+    <rPh sb="6" eb="8">
+      <t>キョウシツ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>regist_pw</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>店長がユーザー登録をする際に使用するやつ</t>
+    <rPh sb="0" eb="2">
+      <t>テンチョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -901,21 +992,21 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.44140625" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="58.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="21.375" customWidth="1"/>
+    <col min="6" max="6" width="58.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
@@ -929,7 +1020,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -943,7 +1034,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
@@ -951,7 +1042,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
@@ -959,7 +1050,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
@@ -976,7 +1067,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B8" s="3">
         <v>1</v>
       </c>
@@ -993,7 +1084,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -1010,7 +1101,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B10" s="3">
         <v>3</v>
       </c>
@@ -1027,7 +1118,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B11" s="3">
         <v>4</v>
       </c>
@@ -1044,7 +1135,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B12" s="3">
         <v>5</v>
       </c>
@@ -1061,7 +1152,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B13" s="3">
         <v>6</v>
       </c>
@@ -1078,7 +1169,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B14" s="3">
         <v>7</v>
       </c>
@@ -1087,7 +1178,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B15" s="3">
         <v>8</v>
       </c>
@@ -1096,7 +1187,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B16" s="3">
         <v>9</v>
       </c>
@@ -1105,7 +1196,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="3">
         <v>10</v>
       </c>
@@ -1114,7 +1205,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="3">
         <v>11</v>
       </c>
@@ -1123,7 +1214,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B19" s="3">
         <v>12</v>
       </c>
@@ -1132,7 +1223,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B20" s="3">
         <v>13</v>
       </c>
@@ -1141,7 +1232,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="3">
         <v>14</v>
       </c>
@@ -1150,7 +1241,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B22" s="3">
         <v>15</v>
       </c>
@@ -1159,7 +1250,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B23" s="3">
         <v>16</v>
       </c>
@@ -1168,7 +1259,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B24" s="3">
         <v>17</v>
       </c>
@@ -1177,7 +1268,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B25" s="3">
         <v>18</v>
       </c>
@@ -1186,7 +1277,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B26" s="3">
         <v>19</v>
       </c>
@@ -1195,7 +1286,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="3">
         <v>20</v>
       </c>
@@ -1204,7 +1295,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B28" s="3">
         <v>21</v>
       </c>
@@ -1213,7 +1304,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" s="3">
         <v>22</v>
       </c>
@@ -1222,7 +1313,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="3">
         <v>23</v>
       </c>
@@ -1231,7 +1322,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="3">
         <v>24</v>
       </c>
@@ -1240,7 +1331,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="3">
         <v>25</v>
       </c>
@@ -1249,7 +1340,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B33" s="3">
         <v>26</v>
       </c>
@@ -1258,7 +1349,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B34" s="3">
         <v>27</v>
       </c>
@@ -1267,7 +1358,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B35" s="3">
         <v>28</v>
       </c>
@@ -1276,7 +1367,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B36" s="3">
         <v>29</v>
       </c>
@@ -1285,7 +1376,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B37" s="3">
         <v>30</v>
       </c>
@@ -1294,7 +1385,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B38" s="3">
         <v>31</v>
       </c>
@@ -1318,23 +1409,23 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1348,7 +1439,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1362,7 +1453,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1374,7 +1465,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1386,7 +1477,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1422,7 +1513,7 @@
         <v>create table  (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -1454,7 +1545,7 @@
         <v>id int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -1484,7 +1575,7 @@
         <v>user_name varchar (50),</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -1514,7 +1605,7 @@
         <v>password varchar (50),</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -1542,7 +1633,7 @@
         <v xml:space="preserve">tenchou_flag int </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -1560,7 +1651,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -1578,7 +1669,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -1596,7 +1687,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -1614,7 +1705,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -1632,7 +1723,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -1650,7 +1741,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -1668,7 +1759,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -1686,7 +1777,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -1704,7 +1795,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -1722,7 +1813,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -1740,7 +1831,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -1758,7 +1849,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -1776,7 +1867,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -1794,7 +1885,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -1812,7 +1903,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -1830,7 +1921,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
         <v>19</v>
       </c>
@@ -1849,23 +1940,23 @@
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1879,7 +1970,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1893,7 +1984,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1905,7 +1996,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1917,7 +2008,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1953,7 +2044,7 @@
         <v>create table  (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -1985,7 +2076,7 @@
         <v>user_name varchar (50),</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -2015,7 +2106,7 @@
         <v>date date ,</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -2039,7 +2130,7 @@
         <v>start int ,</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -2063,7 +2154,7 @@
         <v xml:space="preserve">end int </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -2081,7 +2172,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -2099,7 +2190,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -2117,7 +2208,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -2135,7 +2226,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -2153,7 +2244,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -2171,7 +2262,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -2189,7 +2280,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -2207,7 +2298,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -2225,7 +2316,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -2243,7 +2334,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -2261,7 +2352,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -2279,7 +2370,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -2297,7 +2388,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -2315,7 +2406,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -2333,7 +2424,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -2351,7 +2442,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
         <v>19</v>
       </c>
@@ -2366,27 +2457,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B33EA2-626B-430F-8E94-8B4B16AE7525}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
@@ -2400,7 +2491,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2414,7 +2505,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -2426,7 +2517,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -2438,7 +2529,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -2474,7 +2565,7 @@
         <v>create table  (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -2502,7 +2593,7 @@
         <v>date date ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -2526,7 +2617,7 @@
         <v>start int ,</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -2547,10 +2638,505 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">end int </v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+        <v>end int ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">enevt_id int </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D60B1F0D-DEC1-43A6-98A1-7AE8A7B94815}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45820</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45820</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table  (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">manual_file  </v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -2568,7 +3154,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -2586,7 +3172,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -2604,7 +3190,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -2622,7 +3208,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -2640,7 +3226,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -2658,7 +3244,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -2676,7 +3262,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -2694,7 +3280,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -2712,7 +3298,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -2730,7 +3316,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -2748,7 +3334,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -2766,7 +3352,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -2784,7 +3370,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -2802,7 +3388,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -2820,7 +3406,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -2838,7 +3424,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -2856,7 +3442,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
         <v>19</v>
       </c>
@@ -2867,31 +3453,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D60B1F0D-DEC1-43A6-98A1-7AE8A7B94815}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034BC70C-75C3-4172-8651-A4CAADD718B7}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
@@ -2905,7 +3491,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2919,7 +3505,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -2931,7 +3517,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -2943,7 +3529,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -2979,25 +3565,544 @@
         <v>create table  (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="E10" s="3"/>
+      <c r="F10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>button_id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="3">
+        <v>8</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>button_name varchar (8)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0D38B3-62B0-4DBD-9A4D-147ECC93EA1C}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45820</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45820</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table  (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="3">
+        <v>50</v>
+      </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <v>regist_pw varchar (50)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -3015,7 +4120,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -3033,7 +4138,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -3051,7 +4156,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -3069,7 +4174,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -3087,7 +4192,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -3105,7 +4210,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -3123,7 +4228,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -3141,7 +4246,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -3159,7 +4264,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -3177,7 +4282,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -3195,7 +4300,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -3213,7 +4318,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -3231,7 +4336,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -3249,7 +4354,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -3267,7 +4372,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -3285,7 +4390,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -3303,7 +4408,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -3321,7 +4426,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -3339,973 +4444,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034BC70C-75C3-4172-8651-A4CAADD718B7}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="16.8" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45820</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="5">
-        <v>45820</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table  (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0D38B3-62B0-4DBD-9A4D-147ECC93EA1C}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="16.8" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45820</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="5">
-        <v>45820</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table  (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
         <v>19</v>
       </c>

--- a/documents/外部設計/データベース設計書_落穂ひろい.xlsx
+++ b/documents/外部設計/データベース設計書_落穂ひろい.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\A5\documents\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E16B86-A81D-4303-8DB4-071E0C30360A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F7D2B8-09D8-4A4A-96BA-97D58C0EAB5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
     <sheet name="user" sheetId="5" r:id="rId2"/>
     <sheet name="shift" sheetId="2" r:id="rId3"/>
     <sheet name="event" sheetId="6" r:id="rId4"/>
-    <sheet name="manual" sheetId="7" r:id="rId5"/>
-    <sheet name="event_button" sheetId="8" r:id="rId6"/>
+    <sheet name="event_button" sheetId="8" r:id="rId5"/>
+    <sheet name="manual" sheetId="7" r:id="rId6"/>
     <sheet name="regist" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="85">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -454,23 +454,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ダブル主キーが機能しなかった場合、
-ユーザーネームごとにシフトのテーブルを作成する。</t>
-    <rPh sb="3" eb="4">
-      <t>シュ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>enevt_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -559,6 +542,60 @@
     <rPh sb="14" eb="16">
       <t>シヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シフトID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shift_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>userテーブルから拾ってくる。ユーザーには表示されない</t>
+    <rPh sb="10" eb="11">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エクリプスのフォルダに保存。VARCHAR制限の1文字分遠慮</t>
+    <rPh sb="11" eb="13">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="25" eb="30">
+      <t>モジブンエンリョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重要度設定</t>
+    <rPh sb="0" eb="5">
+      <t>ジュウヨウドセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>importance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1=Red  2=Yellow  3=Green</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -989,7 +1026,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1937,7 +1974,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1988,7 +2025,9 @@
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2000,7 +2039,9 @@
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2041,39 +2082,37 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table  (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+        <v>create table shift (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="3">
-        <v>50</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="H10" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="7" t="s">
-        <v>63</v>
-      </c>
+      <c r="J10" s="7"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>user_name varchar (50),</v>
+        <v>shift_id int ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -2090,16 +2129,12 @@
         <v>62</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="6" t="s">
-        <v>52</v>
-      </c>
+      <c r="F11" s="6"/>
       <c r="G11" s="3"/>
       <c r="H11" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="3">
-        <v>0</v>
-      </c>
+      <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2151,25 +2186,33 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">end int </v>
+        <v>end int ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">user_id int </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -2646,10 +2689,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>49</v>
@@ -2660,7 +2703,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -2967,493 +3010,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D60B1F0D-DEC1-43A6-98A1-7AE8A7B94815}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45820</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="5">
-        <v>45820</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table  (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">manual_file  </v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034BC70C-75C3-4172-8651-A4CAADD718B7}">
   <dimension ref="A1:L30"/>
   <sheetViews>
@@ -3570,10 +3126,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>49</v>
@@ -3590,7 +3146,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -3602,10 +3158,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>50</v>
@@ -3620,7 +3176,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -3962,12 +3518,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0D38B3-62B0-4DBD-9A4D-147ECC93EA1C}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D60B1F0D-DEC1-43A6-98A1-7AE8A7B94815}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4079,23 +3635,528 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E10" s="3">
-        <v>50</v>
+        <v>65534</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
+      </c>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>manual_file varchar (65534),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3">
+        <v>2</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">importance int </v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0D38B3-62B0-4DBD-9A4D-147ECC93EA1C}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45820</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45820</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table  (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="3">
+        <v>50</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
